--- a/doc/log/201708044204刘广部.xlsx
+++ b/doc/log/201708044204刘广部.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1883\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\OSALS\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B34833D-9AE8-4E85-AA33-A2817DA0C1FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8EF44-8A79-45CD-8C92-B10F2D41639F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E69F9C6C-9693-4F5E-A9D8-E99617A7AE25}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>第六周 2019-4-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>重搭项目框架，构建dao层实体类，测试出现错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.30-11.50&amp;15.30-17.30&amp;23.00-1.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改dao层测试，构建service层及测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEEEFB0-C67C-4ABC-9C96-539E9B78500B}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1816,9 +1824,13 @@
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -1898,96 +1910,6 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:Q56"/>
     <mergeCell ref="B53:C53"/>
@@ -2003,6 +1925,96 @@
     <mergeCell ref="D51:Q51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:Q52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044204刘广部.xlsx
+++ b/doc/log/201708044204刘广部.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\OSALS\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8EF44-8A79-45CD-8C92-B10F2D41639F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE93A7D7-EDD0-44A1-948B-4514CCCE474C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E69F9C6C-9693-4F5E-A9D8-E99617A7AE25}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>第六周 2019-4-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,21 +57,9 @@
     <t>星期三</t>
   </si>
   <si>
-    <t>学习spring中在context下使用注解创建注入spring容器中的对象以及作用范围和生命周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>星期四</t>
   </si>
   <si>
-    <t>14:00-15:40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>样例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>星期五</t>
   </si>
   <si>
@@ -90,10 +78,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SpringIOC和DI样例&amp;mysql远程读取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>18：00-21:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,18 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>尝试使用Hibernate，出现问题较多，有待学习、更改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:30-15:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hibernate第二天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>9:00-10:30 14:30-18:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,14 +122,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>15:00-18:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>课堂演示-创建表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>22:00-24:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -170,15 +134,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>解决pom文件的配置错误&amp;学习上级实验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11:00-12:00&amp;12:30-15:10&amp;16:00-20:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>构建自己的实体/学习Spring事务管理/LocalThred的使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -256,6 +212,54 @@
   <si>
     <t>更改dao层测试，构建service层及测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.00-22.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善service层中Manager类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.00-17.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写实体类的TestCase类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习spring中在context下使用注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringIOC和DI样例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql远程读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.00-14.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试使用Hibernate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建自己的实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决pom文件的配置错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -634,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEEEFB0-C67C-4ABC-9C96-539E9B78500B}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:Q54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -715,13 +719,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -738,15 +738,11 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -763,9 +759,11 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -784,11 +782,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -826,7 +826,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -850,11 +850,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -896,11 +896,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -918,14 +918,14 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -943,7 +943,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -964,15 +964,11 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -989,14 +985,14 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1014,7 +1010,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1038,11 +1034,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1102,11 +1098,15 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1210,11 +1210,11 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1234,13 +1234,9 @@
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1260,11 +1256,11 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1282,7 +1278,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1303,7 +1299,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1324,14 +1320,14 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1349,14 +1345,14 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1374,7 +1370,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1458,7 +1454,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1479,7 +1475,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1500,7 +1496,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1521,14 +1517,14 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1546,7 +1542,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1570,11 +1566,11 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1595,11 +1591,11 @@
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1620,11 +1616,11 @@
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1642,7 +1638,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1663,7 +1659,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1684,7 +1680,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1705,7 +1701,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1726,7 +1722,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1750,11 +1746,11 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1775,11 +1771,11 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1800,11 +1796,11 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -1822,14 +1818,14 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -1847,11 +1843,15 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1889,11 +1889,15 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -1910,6 +1914,96 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:Q56"/>
     <mergeCell ref="B53:C53"/>
@@ -1925,96 +2019,6 @@
     <mergeCell ref="D51:Q51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044204刘广部.xlsx
+++ b/doc/log/201708044204刘广部.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\OSALS\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9471D-3F20-400B-A9A4-834FBA68F25A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5836BAAD-9489-4B96-B5D3-EABDF9CC1CF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E69F9C6C-9693-4F5E-A9D8-E99617A7AE25}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>第六周 2019-4-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -299,6 +299,58 @@
   </si>
   <si>
     <t>重温在IOC容器中装配Bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.00-17.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习JPA Hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四周2019-5-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解Hibernate和Mybatics的作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.00-22.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习配置事务的各种方法等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.00-15.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解了java测试的框架以及slf4j等测试库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.00-11.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Spring MVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十五周2019-5-27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.00-19.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习VUE+ElementUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +419,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,1281 +737,1281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEEEFB0-C67C-4ABC-9C96-539E9B78500B}">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:C59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69:Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -2092,9 +2147,13 @@
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -2130,8 +2189,670 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
     </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="120">
+  <mergeCells count="165">
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:Q85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:Q86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:Q87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:Q88"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:Q80"/>
+    <mergeCell ref="A81:Q81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:Q82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:Q83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:Q84"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:Q75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:Q76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:Q77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:Q78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:Q79"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:Q70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:Q72"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:Q74"/>
+    <mergeCell ref="A65:Q65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:Q66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:Q67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:Q68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:Q69"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:Q40"/>
+    <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:Q38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:Q48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:Q51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:Q52"/>
     <mergeCell ref="A57:Q57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
@@ -2147,111 +2868,6 @@
     <mergeCell ref="D62:Q62"/>
     <mergeCell ref="D63:Q63"/>
     <mergeCell ref="D64:Q64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="A49:Q49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:Q51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:Q52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:Q48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:Q40"/>
-    <mergeCell ref="A41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:Q38"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:Q32"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
